--- a/NextLoad/Files/nota_recepcion.xlsx
+++ b/NextLoad/Files/nota_recepcion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ac\developer\c#\NextLoad\NextLoad\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>Cost. Unit. (BSD)</t>
   </si>
   <si>
-    <t>US$</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>20240623035</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -480,9 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -503,7 +501,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -527,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -536,18 +534,18 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -562,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4">
         <v>40</v>
@@ -574,13 +572,13 @@
         <v>640</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5">
         <v>45464</v>
@@ -591,7 +589,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -606,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4">
         <v>40</v>
@@ -618,13 +616,13 @@
         <v>640</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="5">
         <v>45464</v>
@@ -635,7 +633,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -650,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4">
         <v>40</v>
@@ -662,13 +660,13 @@
         <v>640</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="5">
         <v>45464</v>
@@ -679,7 +677,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -694,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4">
         <v>40</v>
@@ -706,13 +704,13 @@
         <v>640</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="6">
         <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="5">
         <v>45464</v>
@@ -723,13 +721,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -738,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4">
         <v>40</v>
@@ -750,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="5">
         <v>45464</v>
@@ -767,13 +765,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -782,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
         <v>40</v>
@@ -794,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="6">
         <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="5">
         <v>45464</v>
@@ -811,13 +809,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -826,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4">
         <v>40</v>
@@ -838,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="5">
         <v>45464</v>
@@ -855,13 +853,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -870,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4">
         <v>40</v>
@@ -882,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="6">
         <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="5">
         <v>45464</v>
@@ -899,13 +897,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -914,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4">
         <v>40</v>
@@ -926,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="5">
         <v>45464</v>
@@ -943,13 +941,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -958,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4">
         <v>40</v>
@@ -970,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="6">
         <v>2</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="5">
         <v>45464</v>
@@ -987,14 +985,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G12" s="4">
         <v>40</v>
@@ -1014,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="6">
         <v>3</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="5">
         <v>45466</v>
@@ -1031,14 +1029,14 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4">
         <v>40</v>
@@ -1058,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="6">
         <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="5">
         <v>45466</v>
@@ -1075,14 +1073,14 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G14" s="4">
         <v>40</v>
@@ -1102,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="6">
         <v>2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" s="5">
         <v>45466</v>
@@ -1119,14 +1117,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4">
         <v>40</v>
@@ -1146,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="6">
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" s="5">
         <v>45466</v>
@@ -1163,13 +1161,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1178,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4">
         <v>40</v>
@@ -1190,13 +1188,13 @@
         <v>160</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="6">
         <v>4</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" s="5">
         <v>45466</v>
@@ -1207,13 +1205,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1222,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4">
         <v>40</v>
@@ -1234,13 +1232,13 @@
         <v>160</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="6">
         <v>2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" s="5">
         <v>45466</v>
@@ -1251,13 +1249,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1266,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4">
         <v>40</v>
@@ -1278,13 +1276,13 @@
         <v>160</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="6">
         <v>3</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" s="5">
         <v>45466</v>
